--- a/common/dataset_CV/ground_truth.xlsx
+++ b/common/dataset_CV/ground_truth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10860" windowHeight="6980"/>
+    <workbookView windowWidth="24180" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="202">
   <si>
     <t>简历文件名</t>
   </si>
@@ -37,6 +37,9 @@
     <t>工作年限</t>
   </si>
   <si>
+    <t>解析结果备注</t>
+  </si>
+  <si>
     <t>张吉惟</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>北京师范大学</t>
   </si>
   <si>
+    <t>√</t>
+  </si>
+  <si>
     <t>林国瑞</t>
   </si>
   <si>
@@ -58,12 +64,18 @@
     <t xml:space="preserve">南方科技大学  </t>
   </si>
   <si>
+    <t>姓名、工作年限</t>
+  </si>
+  <si>
     <t>林雅南</t>
   </si>
   <si>
     <t>华南师范大学</t>
   </si>
   <si>
+    <t>姓名、年龄</t>
+  </si>
+  <si>
     <t>江奕云</t>
   </si>
   <si>
@@ -85,12 +97,18 @@
     <t>广州新安职业技术学院</t>
   </si>
   <si>
+    <t>√，简历中毕业院校和教育背景信息不同</t>
+  </si>
+  <si>
     <t>林子帆</t>
   </si>
   <si>
     <t>阳江职业学院</t>
   </si>
   <si>
+    <t>姓名、年龄、工作年限</t>
+  </si>
+  <si>
     <t>夏志豪</t>
   </si>
   <si>
@@ -103,6 +121,9 @@
     <t>广州科学技术职业学院</t>
   </si>
   <si>
+    <t>年龄、毕业院校</t>
+  </si>
+  <si>
     <t>李中冰</t>
   </si>
   <si>
@@ -130,6 +151,9 @@
     <t>广东第二商业中等专业学校</t>
   </si>
   <si>
+    <t>年龄23</t>
+  </si>
+  <si>
     <t>洪振霞</t>
   </si>
   <si>
@@ -163,6 +187,9 @@
     <t>中南财经政法大学</t>
   </si>
   <si>
+    <t>年龄、工作年限</t>
+  </si>
+  <si>
     <t>黎芸贵</t>
   </si>
   <si>
@@ -217,6 +244,9 @@
     <t>东华大学</t>
   </si>
   <si>
+    <t>姓名、年龄、最高学历、工作年限</t>
+  </si>
+  <si>
     <t>曹敏佑</t>
   </si>
   <si>
@@ -260,6 +290,9 @@
   </si>
   <si>
     <t>北京邮电大学</t>
+  </si>
+  <si>
+    <t>最高学历、工作年限</t>
   </si>
   <si>
     <t>张瑞群</t>
@@ -597,10 +630,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1068,7 +1101,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,10 +1110,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,7 +1122,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1213,7 +1246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1230,6 +1263,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1589,24 +1625,25 @@
   <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.9090909090909" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.9083333333333" style="3" customWidth="1"/>
     <col min="2" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.0909090909091" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.0916666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="9" width="9" style="4"/>
-    <col min="10" max="10" width="13.2818181818182" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.5909090909091" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.425" style="4" customWidth="1"/>
+    <col min="8" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="13.2833333333333" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.5916666666667" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1625,805 +1662,928 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>34</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5">
         <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:7">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5">
         <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5">
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F10" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="5">
         <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3">
         <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3">
         <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3">
         <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3">
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F15" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3">
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3">
         <v>36</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" ht="13" customHeight="1" spans="1:6">
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="13" customHeight="1" spans="1:7">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C18" s="3">
         <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C19" s="3">
         <v>38</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F19" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3">
         <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F20" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" ht="13" customHeight="1" spans="1:6">
+      <c r="G20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="13" customHeight="1" spans="1:7">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3">
         <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3">
         <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F22" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C23" s="3">
         <v>38</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F23" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3">
         <v>37</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F24" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3">
         <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F25" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3">
         <v>35</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F26" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3">
         <v>29</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F27" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C28" s="3">
         <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F28" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3">
         <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C30" s="3">
         <v>29</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F30" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C31" s="3">
         <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F31" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3">
         <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F32" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C33" s="3">
         <v>34</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F33" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3">
         <v>30</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F34" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3">
         <v>29</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3">
         <v>28</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F36" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C37" s="3">
         <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F37" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3">
         <v>26</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3">
         <v>28</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F40" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C41" s="3">
         <v>26</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F41" s="3">
         <v>3</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2431,16 +2591,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C42" s="3">
         <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F42" s="3">
         <v>3</v>
@@ -2451,16 +2611,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3">
         <v>32</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F43" s="3">
         <v>9</v>
@@ -2471,16 +2631,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3">
         <v>34</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F44" s="3">
         <v>11</v>
@@ -2491,16 +2651,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3">
         <v>36</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F45" s="3">
         <v>7</v>
@@ -2511,16 +2671,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3">
         <v>33</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F46" s="3">
         <v>10</v>
@@ -2531,16 +2691,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C47" s="3">
         <v>34</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F47" s="3">
         <v>11</v>
@@ -2551,16 +2711,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C48" s="3">
         <v>24</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2571,16 +2731,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C49" s="3">
         <v>34</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F49" s="3">
         <v>7</v>
@@ -2591,16 +2751,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C50" s="3">
         <v>27</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F50" s="3">
         <v>6</v>
@@ -2611,16 +2771,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C51" s="3">
         <v>32</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F51" s="3">
         <v>7</v>
@@ -2631,16 +2791,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C52" s="3">
         <v>26</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F52" s="3">
         <v>3</v>
@@ -2651,16 +2811,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C53" s="3">
         <v>34</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F53" s="3">
         <v>3</v>
@@ -2671,16 +2831,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C54" s="3">
         <v>26</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F54" s="3">
         <v>3</v>
@@ -2690,17 +2850,17 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>108</v>
+      <c r="B55" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C55" s="3">
         <v>24</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F55" s="3">
         <v>5</v>
@@ -2711,16 +2871,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C56" s="3">
         <v>35</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F56" s="3">
         <v>6</v>
@@ -2731,16 +2891,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C57" s="3">
         <v>26</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F57" s="3">
         <v>2</v>
@@ -2751,16 +2911,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C58" s="3">
         <v>28</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F58" s="3">
         <v>6</v>
@@ -2771,16 +2931,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C59" s="3">
         <v>34</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F59" s="3">
         <v>11</v>
@@ -2791,16 +2951,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C60" s="3">
         <v>32</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F60" s="3">
         <v>10</v>
@@ -2811,16 +2971,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C61" s="3">
         <v>28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F61" s="3">
         <v>5</v>
@@ -2831,16 +2991,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C62" s="5">
         <v>24</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F62" s="5">
         <v>5</v>
@@ -2851,16 +3011,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C63" s="5">
         <v>24</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F63" s="5">
         <v>5</v>
@@ -2871,16 +3031,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C64" s="5">
         <v>23</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F64" s="5">
         <v>4</v>
@@ -2890,17 +3050,17 @@
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>127</v>
+      <c r="B65" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C65" s="5">
         <v>26</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F65" s="5">
         <v>7</v>
@@ -2914,16 +3074,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C66" s="5">
         <v>28</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F66" s="5">
         <v>9</v>
@@ -2937,16 +3097,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C67" s="5">
         <v>27</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
@@ -2960,16 +3120,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C68" s="5">
         <v>27</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F68" s="5">
         <v>7</v>
@@ -2983,16 +3143,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C69" s="5">
         <v>25</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F69" s="5">
         <v>7</v>
@@ -3006,16 +3166,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C70" s="5">
         <v>26</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F70" s="5">
         <v>6</v>
@@ -3030,16 +3190,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C71" s="5">
         <v>29</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F71" s="5">
         <v>10</v>
@@ -3053,16 +3213,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C72" s="3">
         <v>26</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F72" s="3">
         <v>3</v>
@@ -3076,16 +3236,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C73" s="3">
         <v>29</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="F73" s="3">
         <v>6</v>
@@ -3099,16 +3259,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C74" s="3">
         <v>34</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F74" s="3">
         <v>11</v>
@@ -3122,16 +3282,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C75" s="3">
         <v>28</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="F75" s="3">
         <v>5</v>
@@ -3145,16 +3305,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C76" s="3">
         <v>32</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F76" s="3">
         <v>8</v>
@@ -3168,16 +3328,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C77" s="3">
         <v>34</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F77" s="3">
         <v>11</v>
@@ -3191,16 +3351,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C78" s="3">
         <v>31</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F78" s="3">
         <v>8</v>
@@ -3214,16 +3374,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C79" s="3">
         <v>30</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="F79" s="3">
         <v>4</v>
@@ -3237,16 +3397,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C80" s="3">
         <v>34</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="F80" s="3">
         <v>11</v>
@@ -3260,16 +3420,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C81" s="3">
         <v>30</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F81" s="3">
         <v>4</v>
@@ -3283,16 +3443,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C82" s="3">
         <v>28</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F82" s="3">
         <v>4</v>
@@ -3306,16 +3466,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C83" s="3">
         <v>26</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F83" s="3">
         <v>2</v>
@@ -3329,36 +3489,36 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C84" s="3">
         <v>25</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F84" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:6">
+    <row r="85" ht="14" customHeight="1" spans="1:6">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C85" s="3">
         <v>30</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F85" s="3">
         <v>6</v>
@@ -3369,16 +3529,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C86" s="3">
         <v>27</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F86" s="3">
         <v>3</v>
@@ -3389,16 +3549,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C87" s="3">
         <v>30</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F87" s="3">
         <v>9</v>
@@ -3409,16 +3569,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C88" s="3">
         <v>26</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -3429,16 +3589,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C89" s="3">
         <v>29</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F89" s="3">
         <v>3</v>
@@ -3449,16 +3609,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C90" s="3">
         <v>27</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F90" s="3">
         <v>4</v>
@@ -3469,16 +3629,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C91" s="3">
         <v>29</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F91" s="3">
         <v>8</v>
@@ -3489,16 +3649,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C92" s="3">
         <v>25</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -3509,16 +3669,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C93" s="3">
         <v>30</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F93" s="3">
         <v>6</v>
@@ -3529,16 +3689,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C94" s="3">
         <v>25</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3549,16 +3709,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C95" s="3">
         <v>26</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F95" s="3">
         <v>3</v>
@@ -3569,16 +3729,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C96" s="3">
         <v>32</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="F96" s="3">
         <v>9</v>
@@ -3589,16 +3749,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C97" s="3">
         <v>30</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F97" s="3">
         <v>8</v>
@@ -3609,16 +3769,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C98" s="3">
         <v>23</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3629,16 +3789,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C99" s="3">
         <v>27</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="F99" s="3">
         <v>4</v>
@@ -3649,16 +3809,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C100" s="3">
         <v>28</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>2</v>
@@ -3669,16 +3829,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C101" s="3">
         <v>31</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F101" s="3">
         <v>7</v>
